--- a/settings/noreadytable/Upgrade.xlsx
+++ b/settings/noreadytable/Upgrade.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Upgrade" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
   <si>
     <t>string</t>
   </si>
@@ -37,19 +35,32 @@
     <t>int</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>分类序号</t>
-  </si>
-  <si>
-    <t>组序号</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>等级</t>
+    <t>array</t>
+  </si>
+  <si>
+    <t>升级ID</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <r>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+该升级对应的记忆结晶是何类型。不同类型的记忆结晶升级时可能会强化的属性不同。</t>
+    </r>
+  </si>
+  <si>
+    <t>最大等级</t>
   </si>
   <si>
     <t>伤害加成</t>
@@ -67,40 +78,198 @@
     <t>攻击次数加成</t>
   </si>
   <si>
-    <t>Debuff效果加成</t>
+    <t>Debuff/Buff效果加成</t>
   </si>
   <si>
     <t>冷却缩减</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Damage_Addition</t>
-  </si>
-  <si>
-    <t>Bullet_Speed_Addition</t>
-  </si>
-  <si>
-    <t>Duration_Addition</t>
-  </si>
-  <si>
-    <t>Range_Addition</t>
-  </si>
-  <si>
-    <t>Times_Addition</t>
-  </si>
-  <si>
-    <t>Debuff_Addition</t>
-  </si>
-  <si>
-    <t>Cd_Reduction</t>
-  </si>
-  <si>
-    <t>灵梦</t>
+    <r>
+      <t xml:space="preserve">特殊
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none：无；
+disposable_buff：这种记忆结晶对应即时Buff，升级时会再次触发一次对应即时Buff。</t>
+    </r>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>damage_addition</t>
+  </si>
+  <si>
+    <t>bullet_speed_addition</t>
+  </si>
+  <si>
+    <t>duration_addition</t>
+  </si>
+  <si>
+    <t>range_addition</t>
+  </si>
+  <si>
+    <t>times_addition</t>
+  </si>
+  <si>
+    <t>debuff_addition</t>
+  </si>
+  <si>
+    <t>cd_reduction</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>upg_reimu</t>
+  </si>
+  <si>
+    <t>博丽灵梦</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>0.25|0.25|0.25|0.25|0.5|0.5</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0</t>
+  </si>
+  <si>
+    <t>0|1|1|2|2|3</t>
+  </si>
+  <si>
+    <t>0|0|0|0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>upg_sanae</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
+  </si>
+  <si>
+    <t>upg_rumia</t>
+  </si>
+  <si>
+    <t>露米娅</t>
+  </si>
+  <si>
+    <t>upg_wriggle</t>
+  </si>
+  <si>
+    <t>莉格露</t>
+  </si>
+  <si>
+    <t>upg_alice</t>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+  </si>
+  <si>
+    <t>upg_sekibanki</t>
+  </si>
+  <si>
+    <t>赤蛮奇</t>
+  </si>
+  <si>
+    <t>upg_misumaru</t>
+  </si>
+  <si>
+    <t>玉造魅须丸</t>
+  </si>
+  <si>
+    <t>upg_sakuya</t>
+  </si>
+  <si>
+    <t>十六夜咲夜</t>
+  </si>
+  <si>
+    <t>upg_marisa</t>
+  </si>
+  <si>
+    <t>雾雨魔理沙</t>
+  </si>
+  <si>
+    <t>spellcard</t>
+  </si>
+  <si>
+    <t>0|0.25|0.5</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>upg_youmu</t>
+  </si>
+  <si>
+    <t>魂魄妖梦</t>
+  </si>
+  <si>
+    <t>upg_patchouli</t>
+  </si>
+  <si>
+    <t>帕秋莉</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>0|0.5|1|1.5</t>
+  </si>
+  <si>
+    <t>upg_saki</t>
+  </si>
+  <si>
+    <t>骊驹早鬼</t>
+  </si>
+  <si>
+    <t>upg_narumi</t>
+  </si>
+  <si>
+    <t>矢田寺成美</t>
+  </si>
+  <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>disposable_buff</t>
+  </si>
+  <si>
+    <t>upg_junko</t>
+  </si>
+  <si>
+    <t>纯狐</t>
+  </si>
+  <si>
+    <t>upg_kisumi</t>
+  </si>
+  <si>
+    <t>琪斯美</t>
+  </si>
+  <si>
+    <t>upg_momoyo</t>
+  </si>
+  <si>
+    <t>姬虫百百世</t>
   </si>
 </sst>
 </file>
@@ -122,13 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -270,6 +432,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -593,145 +762,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,32 +1219,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.54545454545455" customWidth="1"/>
-    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
-    <col min="3" max="4" width="7.54545454545455" customWidth="1"/>
-    <col min="5" max="5" width="6.54545454545455" customWidth="1"/>
-    <col min="6" max="6" width="17.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="24.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="19.6363636363636" customWidth="1"/>
-    <col min="9" max="10" width="16.2727272727273" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
+    <col min="5" max="11" width="30.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="21.4545454545455" customWidth="1"/>
+    <col min="13" max="13" width="7.90909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="4:12">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1084,271 +1269,591 @@
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:12">
+    <row r="2" s="1" customFormat="1" ht="71" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="4:12">
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="5:12">
-      <c r="E5">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="F5">
-        <f>F4</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:L5" si="0">G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="5:12">
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <f>F5</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:L6" si="1">G5</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="5:12">
-      <c r="E7">
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="F7">
-        <f>F6</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:L7" si="2">G6</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="5:12">
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <f>F7</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:L8" si="3">G7</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12">
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <f>F8</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:L9" si="4">G8</f>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1356,38 +1861,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>